--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.239710333333333</v>
+        <v>0.07341366666666667</v>
       </c>
       <c r="H2">
-        <v>6.719131000000001</v>
+        <v>0.220241</v>
       </c>
       <c r="I2">
-        <v>0.00882390130495838</v>
+        <v>0.0002863346715903855</v>
       </c>
       <c r="J2">
-        <v>0.008823901304958382</v>
+        <v>0.0002863346715903855</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,10 +552,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N2">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>128.1200823211142</v>
+        <v>0.001023117329888889</v>
       </c>
       <c r="R2">
-        <v>1153.080740890028</v>
+        <v>0.009208055969</v>
       </c>
       <c r="S2">
-        <v>0.00882390130495838</v>
+        <v>0.0002863346715903855</v>
       </c>
       <c r="T2">
-        <v>0.008823901304958382</v>
+        <v>0.0002863346715903855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,10 +602,10 @@
         <v>702.011155</v>
       </c>
       <c r="I3">
-        <v>0.9219164125092724</v>
+        <v>0.9126826227619391</v>
       </c>
       <c r="J3">
-        <v>0.9219164125092725</v>
+        <v>0.912682622761939</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,10 +614,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N3">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>13385.91656702935</v>
+        <v>3.261153819932778</v>
       </c>
       <c r="R3">
-        <v>120473.2491032641</v>
+        <v>29.350384379395</v>
       </c>
       <c r="S3">
-        <v>0.9219164125092724</v>
+        <v>0.9126826227619391</v>
       </c>
       <c r="T3">
-        <v>0.9219164125092725</v>
+        <v>0.912682622761939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.579711</v>
+        <v>22.31398633333333</v>
       </c>
       <c r="H4">
-        <v>52.739133</v>
+        <v>66.941959</v>
       </c>
       <c r="I4">
-        <v>0.06925968618576919</v>
+        <v>0.0870310425664706</v>
       </c>
       <c r="J4">
-        <v>0.06925968618576919</v>
+        <v>0.0870310425664706</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,10 +676,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N4">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1005.627373763689</v>
+        <v>0.3109751515367778</v>
       </c>
       <c r="R4">
-        <v>9050.646363873202</v>
+        <v>2.798776363831</v>
       </c>
       <c r="S4">
-        <v>0.06925968618576919</v>
+        <v>0.0870310425664706</v>
       </c>
       <c r="T4">
-        <v>0.06925968618576919</v>
+        <v>0.0870310425664706</v>
       </c>
     </row>
   </sheetData>
